--- a/progression_2019_2020_IPT_MPSI_0.xlsx
+++ b/progression_2019_2020_IPT_MPSI_0.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="86">
   <si>
     <t>Cours</t>
   </si>
@@ -246,6 +246,51 @@
   </si>
   <si>
     <t>Fond_ANAL</t>
+  </si>
+  <si>
+    <t>Chapitre correspondant au TP</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5;1-6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>4-1;4-2</t>
+  </si>
+  <si>
+    <t>4-1;4-2;4-3;4-4</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1164,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1359,6 +1404,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2329,10 +2392,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2347,12 +2410,12 @@
     <col min="10" max="10" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="41.33203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="41.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="39" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -2401,11 +2464,14 @@
       <c r="P1" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2444,9 +2510,12 @@
       <c r="P2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="33"/>
-    </row>
-    <row r="3" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="33"/>
+    </row>
+    <row r="3" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2482,9 +2551,12 @@
       <c r="P3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="33"/>
-    </row>
-    <row r="4" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2520,9 +2592,12 @@
       <c r="P4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="33"/>
-    </row>
-    <row r="5" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="33"/>
+    </row>
+    <row r="5" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2558,9 +2633,12 @@
       <c r="P5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="33"/>
-    </row>
-    <row r="6" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" s="33"/>
+    </row>
+    <row r="6" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2596,9 +2674,12 @@
       <c r="P6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="33"/>
-    </row>
-    <row r="7" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q6" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="33"/>
+    </row>
+    <row r="7" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2634,9 +2715,12 @@
       <c r="P7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="32"/>
+    </row>
+    <row r="8" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2671,9 +2755,12 @@
       <c r="P8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="33"/>
-    </row>
-    <row r="9" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q8" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="33"/>
+    </row>
+    <row r="9" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="58" t="s">
         <v>10</v>
       </c>
@@ -2692,9 +2779,10 @@
       <c r="N9" s="59"/>
       <c r="O9" s="59"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q9" s="74"/>
+      <c r="R9" s="32"/>
+    </row>
+    <row r="10" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2734,9 +2822,12 @@
       <c r="P10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="32"/>
+    </row>
+    <row r="11" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2772,9 +2863,12 @@
       <c r="P11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q11" s="33"/>
-    </row>
-    <row r="12" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q11" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="33"/>
+    </row>
+    <row r="12" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2810,8 +2904,11 @@
       <c r="P12" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2847,9 +2944,12 @@
       <c r="P13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q13" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2885,8 +2985,11 @@
       <c r="P14" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2924,9 +3027,12 @@
       <c r="P15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="33"/>
-    </row>
-    <row r="16" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q15" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="33"/>
+    </row>
+    <row r="16" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2962,9 +3068,12 @@
       <c r="P16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q16" s="32"/>
-    </row>
-    <row r="17" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q16" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="32"/>
+    </row>
+    <row r="17" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="58" t="s">
         <v>11</v>
       </c>
@@ -2983,9 +3092,10 @@
       <c r="N17" s="59"/>
       <c r="O17" s="59"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="32"/>
-    </row>
-    <row r="18" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="74"/>
+      <c r="R17" s="32"/>
+    </row>
+    <row r="18" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3025,9 +3135,12 @@
       <c r="P18" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="Q18" s="33"/>
-    </row>
-    <row r="19" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="R18" s="33"/>
+    </row>
+    <row r="19" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3063,9 +3176,12 @@
       <c r="P19" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="Q19" s="33"/>
-    </row>
-    <row r="20" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="R19" s="33"/>
+    </row>
+    <row r="20" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3101,9 +3217,12 @@
       <c r="P20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q20" s="33"/>
-    </row>
-    <row r="21" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" s="33"/>
+    </row>
+    <row r="21" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3139,9 +3258,12 @@
       <c r="P21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" s="33"/>
-    </row>
-    <row r="22" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q21" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" s="33"/>
+    </row>
+    <row r="22" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3181,9 +3303,12 @@
       <c r="P22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="R22" s="32"/>
+    </row>
+    <row r="23" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3221,9 +3346,12 @@
       <c r="P23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="33"/>
-    </row>
-    <row r="24" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" s="33"/>
+    </row>
+    <row r="24" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -3257,9 +3385,12 @@
       <c r="N24" s="27"/>
       <c r="O24" s="75"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="33"/>
-    </row>
-    <row r="25" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q24" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="R24" s="33"/>
+    </row>
+    <row r="25" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="58" t="s">
         <v>12</v>
       </c>
@@ -3278,9 +3409,10 @@
       <c r="N25" s="59"/>
       <c r="O25" s="59"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="32"/>
-    </row>
-    <row r="26" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q25" s="83"/>
+      <c r="R25" s="32"/>
+    </row>
+    <row r="26" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -3320,9 +3452,12 @@
       <c r="P26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q26" s="32"/>
-    </row>
-    <row r="27" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="R26" s="32"/>
+    </row>
+    <row r="27" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -3355,9 +3490,12 @@
       <c r="M27" s="40"/>
       <c r="O27" s="36"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="33"/>
-    </row>
-    <row r="28" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q27" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="R27" s="33"/>
+    </row>
+    <row r="28" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -3393,9 +3531,12 @@
       <c r="P28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q28" s="32"/>
-    </row>
-    <row r="29" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="R28" s="32"/>
+    </row>
+    <row r="29" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -3429,9 +3570,12 @@
       <c r="N29" s="3"/>
       <c r="O29" s="75"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="33"/>
-    </row>
-    <row r="30" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q29" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="R29" s="33"/>
+    </row>
+    <row r="30" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -3473,9 +3617,12 @@
       <c r="P30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Q30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q30" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="R30" s="32"/>
+    </row>
+    <row r="31" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -3511,9 +3658,12 @@
       <c r="P31" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="Q31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q31" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" s="32"/>
+    </row>
+    <row r="32" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="66" t="s">
         <v>14</v>
       </c>
@@ -3532,9 +3682,10 @@
       <c r="N32" s="67"/>
       <c r="O32" s="67"/>
       <c r="P32" s="80"/>
-      <c r="Q32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q32" s="84"/>
+      <c r="R32" s="32"/>
+    </row>
+    <row r="33" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -3572,9 +3723,12 @@
       <c r="N33" s="6"/>
       <c r="O33" s="77"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="33"/>
-    </row>
-    <row r="34" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q33" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="R33" s="33"/>
+    </row>
+    <row r="34" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -3610,9 +3764,12 @@
       <c r="P34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q34" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="R34" s="32"/>
+    </row>
+    <row r="35" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -3645,9 +3802,12 @@
       <c r="M35" s="40"/>
       <c r="O35" s="36"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="79"/>
-    </row>
-    <row r="36" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="R35" s="79"/>
+    </row>
+    <row r="36" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -3681,9 +3841,12 @@
       <c r="N36" s="7"/>
       <c r="O36" s="78"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="33"/>
-    </row>
-    <row r="37" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q36" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="R36" s="33"/>
+    </row>
+    <row r="37" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -3715,9 +3878,12 @@
       </c>
       <c r="O37" s="36"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="79"/>
-    </row>
-    <row r="38" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="R37" s="79"/>
+    </row>
+    <row r="38" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -3747,9 +3913,12 @@
       <c r="N38" s="4"/>
       <c r="O38" s="36"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="33"/>
-    </row>
-    <row r="39" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q38" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="R38" s="33"/>
+    </row>
+    <row r="39" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -3779,9 +3948,12 @@
       <c r="N39" s="27"/>
       <c r="O39" s="76"/>
       <c r="P39" s="27"/>
-      <c r="Q39" s="79"/>
-    </row>
-    <row r="40" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q39" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="R39" s="79"/>
+    </row>
+    <row r="40" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -3809,9 +3981,12 @@
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="33"/>
-    </row>
-    <row r="41" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q40" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="R40" s="33"/>
+    </row>
+    <row r="41" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="66" t="s">
         <v>15</v>
       </c>
@@ -3830,6 +4005,7 @@
       <c r="N41" s="67"/>
       <c r="O41" s="67"/>
       <c r="P41" s="80"/>
+      <c r="Q41" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/progression_2019_2020_IPT_MPSI_0.xlsx
+++ b/progression_2019_2020_IPT_MPSI_0.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FE4698-6955-47DC-9DFA-F4C88FB34861}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31960" yWindow="-1120" windowWidth="25600" windowHeight="14160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
     <sheet name="Cycles MPSI IPT" sheetId="11" r:id="rId2"/>
+    <sheet name="Competences" sheetId="14" r:id="rId3"/>
+    <sheet name="Programme" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="292">
   <si>
     <t>Cours</t>
   </si>
@@ -112,28 +120,18 @@
     <t>DS4</t>
   </si>
   <si>
-    <t>Architecture et algorithmique</t>
-  </si>
-  <si>
     <t>Architecture matérielle et logicielle et Introduction à l'algorithmique</t>
   </si>
   <si>
     <t>Démontage d'un PC et étude des composants</t>
   </si>
   <si>
-    <t>Expressions, types et variables en
-Python</t>
-  </si>
-  <si>
     <t>Instructions conditionnelles et boucles</t>
   </si>
   <si>
     <t>Tracé de fonction</t>
   </si>
   <si>
-    <t>Analyse algorithmique</t>
-  </si>
-  <si>
     <t>Tableaux</t>
   </si>
   <si>
@@ -245,9 +243,6 @@
     <t>Fond_SIMU</t>
   </si>
   <si>
-    <t>Fond_ANAL</t>
-  </si>
-  <si>
     <t>Chapitre correspondant au TP</t>
   </si>
   <si>
@@ -291,13 +286,655 @@
   </si>
   <si>
     <t>4-1;4-2;4-3;4-4</t>
+  </si>
+  <si>
+    <t>CI 1 - Découverte de l'informatique</t>
+  </si>
+  <si>
+    <t>Déc - C1</t>
+  </si>
+  <si>
+    <t>Manipuler en mode « utilisateur » les principales fonctions d’un système d’exploitation et d’un environnement de développement</t>
+  </si>
+  <si>
+    <t>Se familiariser aux principaux composants d’une machine numérique telle que l’ordinateur personnel, une tablette, etc : sources d’énergie, mémoire vive, mémoire de masse, unité centrale, périphériques d’entrée-sortie, ports de communication avec d’autres composants numériques</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d’un système d’exploitation (gestion des ressources, essentiellement : organisation des fichiers, arborescence, droits d’accès, de modification, entrées/sorties)</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d’un environnement de développement</t>
+  </si>
+  <si>
+    <t>Déc - C2</t>
+  </si>
+  <si>
+    <t>Appréhender les limitations intrinsèques à la manipulation informatique des nombres</t>
+  </si>
+  <si>
+    <t>Déc - C3</t>
+  </si>
+  <si>
+    <t>Initier un sens critique au sujet de la qualité et de la précision des résultats de calculs numériques sur ordinateur</t>
+  </si>
+  <si>
+    <t>On introduit ou rappelle brièvement le principe de la représentation binaire ainsi que ses limites.</t>
+  </si>
+  <si>
+    <t>Principe de la représentation des nombres entiers en mémoire</t>
+  </si>
+  <si>
+    <t>On se limite à la définition de l’écriture en virgule flottante normalisée et on explique le codage d’un nombre réel en général sans entrer dans les cas particuliers comme les
+non-nombres « not a number » ou les infinis.</t>
+  </si>
+  <si>
+    <t>Principe de la représentation des nombres réels en mémoire</t>
+  </si>
+  <si>
+    <t>On illustre, sur des exemples simples, pouvant être illustrés au moyen d’une calculatrice, les phénomènes de dépassement de capacité (ou « overflow ») de séquences de calculs conduisant à des résultats faux et erreurs d’arrondis. On illustre aussi le problème de la comparaison à zéro, par exemple dans une équation du second degré.</t>
+  </si>
+  <si>
+    <t>CI 2 - Algorithmique et programmation</t>
+  </si>
+  <si>
+    <t>Alg - C1</t>
+  </si>
+  <si>
+    <t>Comprendre un algorithme et expliquer ce qu’il fait</t>
+  </si>
+  <si>
+    <t>Alg - C2</t>
+  </si>
+  <si>
+    <t>Modifier un algorithme existant pour obtenir un résultat différent</t>
+  </si>
+  <si>
+    <t>Alg - C3</t>
+  </si>
+  <si>
+    <t>Concevoir un algorithme répondant à un problème précisément posé</t>
+  </si>
+  <si>
+    <t>Alg - C4</t>
+  </si>
+  <si>
+    <t>Expliquer le fonctionnement d’un algorithme</t>
+  </si>
+  <si>
+    <t>Alg - C5</t>
+  </si>
+  <si>
+    <t>Écrire des instructions conditionnelles avec alternatives, éventuellement imbriquées</t>
+  </si>
+  <si>
+    <t>Alg - C6</t>
+  </si>
+  <si>
+    <t>Justifier qu’une itération (ou boucle) produit l’effet attendu au moyen d’un invariant</t>
+  </si>
+  <si>
+    <t>Alg - C7</t>
+  </si>
+  <si>
+    <t>Démontrer qu’une boucle se termine effectivement</t>
+  </si>
+  <si>
+    <t>Alg - C8</t>
+  </si>
+  <si>
+    <t>S’interroger sur l’efficacité algorithmique temporelle d’un algorithme</t>
+  </si>
+  <si>
+    <t>Recherche dans une liste, recherche du maximum dans une liste de nombres, calcul de la moyenne et de la variance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche par dichotomie dans un tableau trié.
+Recherche par dichotomie du zéro d’une fonction continue et monotone. </t>
+  </si>
+  <si>
+    <t>Méthodes des rectangles et des trapèzes pour le calcul approché d’une intégrale sur un segment.</t>
+  </si>
+  <si>
+    <t>Recherche d’un mot dans une chaîne de caractères.</t>
+  </si>
+  <si>
+    <t>On se limite ici à l’algorithme « naïf », en estimant sa complexité.</t>
+  </si>
+  <si>
+    <t>Alg - C9</t>
+  </si>
+  <si>
+    <t>Choisir un type de données en fonction d’un problème à résoudre</t>
+  </si>
+  <si>
+    <t>Alg - C10</t>
+  </si>
+  <si>
+    <t>Concevoir l’en-tête (ou la spécification) d’une fonction, puis la fonction elle-même</t>
+  </si>
+  <si>
+    <t>Alg - C11</t>
+  </si>
+  <si>
+    <t>Traduire un algorithme dans un langage de programmation</t>
+  </si>
+  <si>
+    <t>Alg - C12</t>
+  </si>
+  <si>
+    <t>Gérer efficacement un ensemble de fichiers correspondant à des versions successives d’un fichier source</t>
+  </si>
+  <si>
+    <t>Alg - C13</t>
+  </si>
+  <si>
+    <t>Rechercher une information au sein d’une documentation en ligne, analyser des exemples fournis dans cette documentation</t>
+  </si>
+  <si>
+    <t>Alg - C14</t>
+  </si>
+  <si>
+    <t>Documenter une fonction, un programme plus complexe.</t>
+  </si>
+  <si>
+    <t>Variables : notion de type et de valeur d’une variable, types simples.</t>
+  </si>
+  <si>
+    <t>Les types simples présentés sont les entiers, flottants, booléens et chaînes de caractères.</t>
+  </si>
+  <si>
+    <t>Expressions et instructions simples : affectation, opérateurs usuels, distinction entre expression et instruction</t>
+  </si>
+  <si>
+    <t>Les expressions considérées sont à valeurs numériques, booléennes ou de type chaîne de caractères.</t>
+  </si>
+  <si>
+    <t>Instructions conditionnelles : expressions booléennes et opérateurs logiques simples, instruction if. Variantes avec alternative (else).</t>
+  </si>
+  <si>
+    <t>Les étudiants devront être capables de structurer et comprendre plusieurs niveaux d’alternatives implantées par des instructions conditionnelles imbriquées.</t>
+  </si>
+  <si>
+    <t>Instructions itératives : boucles for, boucles conditionnelles while.</t>
+  </si>
+  <si>
+    <t>Les sorties de boucle (instruction break) peuvent être présentées et se justifient uniquement lorsqu’elles contribuent à simplifier notablement la programmation sans réelle perte de lisibilité des conditions d’arrêt.</t>
+  </si>
+  <si>
+    <t>Fonctions : notion de fonction (au sens informatique), définition dans le langage utilisé, paramètres (ou arguments) et résultats, portée des variables.</t>
+  </si>
+  <si>
+    <t>On distingue les variables locales des variables globales et on décourage l’utilisation des variables globales autant que possible. La récursivité sera présentée plus tard.</t>
+  </si>
+  <si>
+    <t>Manipulation de quelques structures de données : chaînes de caractères (création, accès à un caractère, concaténation), listes (création, ajout d’un élément, suppression
+d’un élément, accès à un élément, extraction d’une partie de liste), tableaux à une ou plusieurs dimensions.</t>
+  </si>
+  <si>
+    <t>On met en évidence le fait que certaines opérations d’apparence simple cachent un important travail pour le processeur.
+On met à profit la structure de tableau d’entiers à deux dimensions pour introduire la notion d’image ponctuelle (« bitmap »).
+Les algorithmes de traitement d’image seront abordés plus tard.</t>
+  </si>
+  <si>
+    <t>Fichiers : notion de chemin d’accès, lecture et écriture de données numériques ou de type chaîne de caractères depuis ou vers un fichier.</t>
+  </si>
+  <si>
+    <t>On encourage l’utilisation de fichiers en tant que supports de données ou de résultats avant divers traitements, par exemple graphiques. L’utilisation de bases de données sera étudiée plus tard.</t>
+  </si>
+  <si>
+    <t>CI 3 - Ingénierie numérique et simulation</t>
+  </si>
+  <si>
+    <t>Ing - C1</t>
+  </si>
+  <si>
+    <t>Réaliser un programme complet structuré allant de la prise en compte de données expérimentales à la mise en forme des résultats permettant de résoudre un problème scientifique donné</t>
+  </si>
+  <si>
+    <t>Ing - C2</t>
+  </si>
+  <si>
+    <t>Étudier l’effet d’une variation des paramètres sur le temps de calcul, sur la précision des résultats, sur la forme des solutions pour des programmes d'ingénierie numérique choisis, tout en contextualisant l'observation du temps de calcul par rapport à la complexité algorithmique de ces programmes</t>
+  </si>
+  <si>
+    <t>Ing - C3</t>
+  </si>
+  <si>
+    <t>Utiliser les bibliothèques de calcul standard pour résoudre un problème scientifique mis en équation lors des enseignements de chimie, physique, mathématiques, sciences industrielles et de l’ingénieur</t>
+  </si>
+  <si>
+    <t>Ing - C4</t>
+  </si>
+  <si>
+    <t>Utiliser les bibliothèques standard pour afficher les résultats sous forme graphique,</t>
+  </si>
+  <si>
+    <t>Ing - C5</t>
+  </si>
+  <si>
+    <t>Tenir compte des aspects pratiques comme l’impact des erreurs d’arrondi sur les résultats, le temps de calcul ou le stockage en mémoire.</t>
+  </si>
+  <si>
+    <t>Bibliothèques logicielles : utilisation de quelques fonctions d’une bibliothèque et de leur documentation en ligne.</t>
+  </si>
+  <si>
+    <t>On met en évidence l’intérêt de faire appel aux bibliothèques, évitant de devoir réinventer des solutions à des problèmes bien connus. La recherche des spécifications des bibliothèques joue un rôle essentiel pour le développement de solutions fiables aux problèmes posés.</t>
+  </si>
+  <si>
+    <t>Problème stationnaire à une dimension, linéaire ou non conduisant à la résolution approchée d’une équation algébrique ou transcendante. Méthode de dichotomie, méthode de Newton.</t>
+  </si>
+  <si>
+    <t>On souligne les différences du comportement informatique des deux algorithmes en termes de rapidité. On illustre à nouveau le problème du test d’arrêt (inadéquation de la comparaison à zéro).</t>
+  </si>
+  <si>
+    <t>Problème dynamique à une dimension,  linéaire ou non, conduisant à la résolution approchée d’une équation différentielle ordinaire par la méthode d’Euler.</t>
+  </si>
+  <si>
+    <t>On compare les résultats obtenus avec les fonctions de résolution approchée fournies par une bibliothèque numérique. On met en évidence l’impact du pas de
+discrétisation et du nombre d’itérations sur la qualité des résultats et sur le temps de calcul.</t>
+  </si>
+  <si>
+    <t>Problème discret multidimensionnel, linéaire, conduisant à la résolution d’un système linéaire inversible (ou de Cramer) par la méthode de Gauss avec recherche partielle du pivot.</t>
+  </si>
+  <si>
+    <t>La méthode de Gauss étant introduite dans le cours de mathématiques, il est nécessaire de se coordonner avec le professeur de mathématiques pour traiter cette question. Il
+ne s’agit pas de présenter cet algorithme mais de l’exécuter pour étudier sa mise en oeuvre et les problèmes que pose cette démarche. On souligne la complexité de l’algorithme en fonction de la taille des matrices et son impact sur le temps de calcul.</t>
+  </si>
+  <si>
+    <t>CI 4 - Bases de données</t>
+  </si>
+  <si>
+    <t>BDD - C1</t>
+  </si>
+  <si>
+    <t>Utiliser une application offrant une interface graphique pour créer une base de données et l’alimenter</t>
+  </si>
+  <si>
+    <t>BDD - C2</t>
+  </si>
+  <si>
+    <t>Utiliser une application offrant une interface graphique pour lancer des requêtes sur une base de données</t>
+  </si>
+  <si>
+    <t>BDD - C3</t>
+  </si>
+  <si>
+    <t>Distinguer les rôles respectifs des machines client, serveur, et éventuellement serveur de données</t>
+  </si>
+  <si>
+    <t>BDD - C4</t>
+  </si>
+  <si>
+    <t>Traduire dans le langage de l’algèbre relationnelle des requêtes écrites en langage courant</t>
+  </si>
+  <si>
+    <t>BDD - C5</t>
+  </si>
+  <si>
+    <t>Concevoir une base constituée de plusieurs tables, et utiliser les jointures symétriques pour effectuer des requêtes croisées</t>
+  </si>
+  <si>
+    <t>Vocabulaire des bases de données : relation, attribut, domaine, schéma de relation ; notion de clé primaire.</t>
+  </si>
+  <si>
+    <t>Ces concepts sont présentés dans une perspective applicative, à partir d’exemples.</t>
+  </si>
+  <si>
+    <t>Opérateurs usuels sur les ensembles dans un contexte de bases de données : union, intersection, différence.
+Opérateurs spécifiques de l'algèbre relationnelle : projection, sélection (ou restriction), renommage, jointure, produit et division cartésiennes ; fonctions d'agrégation : min, max, somme, moyenne, comptage.</t>
+  </si>
+  <si>
+    <t>Ces concepts sont présentés dans une perspective applicative. Les seules jointures présentées seront les jointures symétriques, simples (utilisant JOIN … ON …=...).</t>
+  </si>
+  <si>
+    <t>Concept de client-serveur. Brève extension au cas de l’architecture trois-tiers.</t>
+  </si>
+  <si>
+    <t>On se limite à présenter ce concept dans la perspective applicative d’utilisation de bases de données.</t>
+  </si>
+  <si>
+    <t>Partie 5 - Algorithme et programmation - Suite</t>
+  </si>
+  <si>
+    <t>Alg - C15</t>
+  </si>
+  <si>
+    <t>Récursivité - Avantages et inconvénients</t>
+  </si>
+  <si>
+    <t>Alg - C16</t>
+  </si>
+  <si>
+    <t>Piles - Algorithmes de manipulation : fonctions «push» et «pop».</t>
+  </si>
+  <si>
+    <t>Alg - C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tris d’un tableau à une dimension de
+valeurs numériques. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri par insertion, tri rapide (ou « quicksort »), tri par fusion.
+Application à la recherche de la médiane d’une liste de nombres. 
+On étudie et on compare ces algorithmes de tri du point de vue des complexités temporelles dans le meilleur et dans le pire cas. </t>
+  </si>
+  <si>
+    <t>Analyse des algorithmes</t>
+  </si>
+  <si>
+    <t>Fond_ANA</t>
+  </si>
+  <si>
+    <t>Expressions, types et variables en Python</t>
+  </si>
+  <si>
+    <t>AA.C1</t>
+  </si>
+  <si>
+    <t>AA.C2</t>
+  </si>
+  <si>
+    <t>AA.C3</t>
+  </si>
+  <si>
+    <t>AA.C4</t>
+  </si>
+  <si>
+    <t>AA.C5</t>
+  </si>
+  <si>
+    <t>AA.C6</t>
+  </si>
+  <si>
+    <t>AN.C1</t>
+  </si>
+  <si>
+    <t>AN.C2</t>
+  </si>
+  <si>
+    <t>AN.C3</t>
+  </si>
+  <si>
+    <t>AN.S1</t>
+  </si>
+  <si>
+    <t>AN.S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche par dichotomie dans un tableau trié. 
+Recherche par dichotomie du zéro d’une fonction continue et monotone. </t>
+  </si>
+  <si>
+    <t>AN.S3</t>
+  </si>
+  <si>
+    <t>AN.S4</t>
+  </si>
+  <si>
+    <t>Recherche d’un mot dans une chaîne de caractères. On se limite ici à l’algorithme « naïf », en estimant sa complexité.</t>
+  </si>
+  <si>
+    <t>AA.C7</t>
+  </si>
+  <si>
+    <t>AA.C9</t>
+  </si>
+  <si>
+    <t>AA.C8</t>
+  </si>
+  <si>
+    <t>AA.C10</t>
+  </si>
+  <si>
+    <t>AA.C11</t>
+  </si>
+  <si>
+    <t>AA.C12</t>
+  </si>
+  <si>
+    <t>AA.S1</t>
+  </si>
+  <si>
+    <t>AA.S2</t>
+  </si>
+  <si>
+    <t>AA.S3</t>
+  </si>
+  <si>
+    <t>AA.S4</t>
+  </si>
+  <si>
+    <t>AA.S5</t>
+  </si>
+  <si>
+    <t>AA.S6</t>
+  </si>
+  <si>
+    <t>Manipulation de quelques structures de données : chaînes de caractères (création, accès à un caractère, concaténation), listes (création, ajout d’un élément, suppression d’un élément, accès à un élément, extraction d’une partie de liste), tableaux à une ou plusieurs dimensions.</t>
+  </si>
+  <si>
+    <t>AA.S7</t>
+  </si>
+  <si>
+    <t>AA.S8</t>
+  </si>
+  <si>
+    <t>AA.S9</t>
+  </si>
+  <si>
+    <t>AA.S10</t>
+  </si>
+  <si>
+    <t>SN.C1</t>
+  </si>
+  <si>
+    <t>SN.C2</t>
+  </si>
+  <si>
+    <t>SN.C3</t>
+  </si>
+  <si>
+    <t>SN.C4</t>
+  </si>
+  <si>
+    <t>SN.C5</t>
+  </si>
+  <si>
+    <t>SN.S1</t>
+  </si>
+  <si>
+    <t>SN.S2</t>
+  </si>
+  <si>
+    <t>SN.S3</t>
+  </si>
+  <si>
+    <t>SN.S4</t>
+  </si>
+  <si>
+    <t>BDD.C1</t>
+  </si>
+  <si>
+    <t>BDD.C2</t>
+  </si>
+  <si>
+    <t>BDD.C3</t>
+  </si>
+  <si>
+    <t>BDD.C4</t>
+  </si>
+  <si>
+    <t>BDD.C5</t>
+  </si>
+  <si>
+    <t>BDD.S1</t>
+  </si>
+  <si>
+    <t>Opérateurs usuels sur les ensembles dans un contexte de bases de données : union, intersection, différence.</t>
+  </si>
+  <si>
+    <t>Opérateurs spécifiques de l'algèbre relationnelle : projection, sélection (ou restriction), renommage, jointure, produit et division cartésiennes ; fonctions d'agrégation : min, max, somme, moyenne, comptage.</t>
+  </si>
+  <si>
+    <t>BDD.S2</t>
+  </si>
+  <si>
+    <t>BDD.S3</t>
+  </si>
+  <si>
+    <t>BDD.S4</t>
+  </si>
+  <si>
+    <t>AL.C1</t>
+  </si>
+  <si>
+    <t>AL.C2</t>
+  </si>
+  <si>
+    <t>AL.C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tris d’un tableau à une dimension de valeurs numériques. </t>
+  </si>
+  <si>
+    <t>AA.C13</t>
+  </si>
+  <si>
+    <t>AA.C14</t>
+  </si>
+  <si>
+    <t>AA.S11</t>
+  </si>
+  <si>
+    <t>AA.S12</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Nom long</t>
+  </si>
+  <si>
+    <t>Nom court</t>
+  </si>
+  <si>
+    <t>Manipuler un OS ou un IDE</t>
+  </si>
+  <si>
+    <t>Se familiariser aux principaux composants d'une machine numérique</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d'un OS</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d'un IDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche par dichotomie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche d’un mot dans une chaîne de caractères. </t>
+  </si>
+  <si>
+    <t>Rechercher une information au sein d’une documentation</t>
+  </si>
+  <si>
+    <t>Expressions et instructions simples</t>
+  </si>
+  <si>
+    <t>Instructions conditionnelles</t>
+  </si>
+  <si>
+    <t>Instructions itératives</t>
+  </si>
+  <si>
+    <t>Notion de fonction informatique</t>
+  </si>
+  <si>
+    <t>Manipulation de quelques structures de données.</t>
+  </si>
+  <si>
+    <t>Réaliser un programme complet structuré</t>
+  </si>
+  <si>
+    <t>Utiliser les bibliothèques de calcul standard</t>
+  </si>
+  <si>
+    <t>Utiliser les bibliothèques standard pour afficher les résultats sous forme graphique</t>
+  </si>
+  <si>
+    <t>Bibliothèques logicielles</t>
+  </si>
+  <si>
+    <t>Problème stationnaire à une dimension. Méthode de dichotomie, méthode de Newton.</t>
+  </si>
+  <si>
+    <t>Problème dynamique à une dimension,  linéaire ou non. Méthode d’Euler.</t>
+  </si>
+  <si>
+    <t>Problème discret multidimensionnel linéaire. Méthode de Gauss avec recherche partielle du pivot.</t>
+  </si>
+  <si>
+    <t>Problèmes</t>
+  </si>
+  <si>
+    <t>Architecture matérielle et initiation à l'algorithmique</t>
+  </si>
+  <si>
+    <t>BDD.S1; BDD.S2</t>
+  </si>
+  <si>
+    <t>BDD.C4; BDD.C5; BDD.S2; BDD.S3</t>
+  </si>
+  <si>
+    <t>BDD.C1; BDD.C2; BDD.C5; BDD.S2; BDD.S3</t>
+  </si>
+  <si>
+    <t>BDD.C3; BDD.S4</t>
+  </si>
+  <si>
+    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S3</t>
+  </si>
+  <si>
+    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S2</t>
+  </si>
+  <si>
+    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S4</t>
+  </si>
+  <si>
+    <t>AA.C1; AA.S1; AA.S3; AA.S3</t>
+  </si>
+  <si>
+    <t>AA.C2: AA.C3; AA.S4; AA.S5</t>
+  </si>
+  <si>
+    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; AN.S3</t>
+  </si>
+  <si>
+    <t>AN.C1; AN.C2; AN.S1; AN.S2; AN.S4</t>
+  </si>
+  <si>
+    <t>AN.C3; AN.S1; AN.S2; AN.S4</t>
+  </si>
+  <si>
+    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C8; AA.S8; AA.S9</t>
+  </si>
+  <si>
+    <t>AA.C9; AA.S12</t>
+  </si>
+  <si>
+    <t>AA.C9; AA.S11</t>
+  </si>
+  <si>
+    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C8; AA.C9; AA.S6; AA.S7; AA.S10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -354,8 +991,42 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,8 +1069,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -507,6 +1184,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="654">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1164,7 +1999,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1286,105 +2121,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1423,6 +2159,199 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="654">
@@ -2073,13 +3002,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 4 2" xfId="5"/>
-    <cellStyle name="Normal 4 3" xfId="6"/>
-    <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2097,6 +3026,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2388,34 +3320,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.81640625" style="1"/>
+    <col min="4" max="4" width="20.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="10.83203125" style="1"/>
-    <col min="18" max="18" width="41.33203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.36328125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.7265625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="10.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="41.36328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" style="1"/>
+    <col min="21" max="21" width="10.81640625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="58.453125" style="116" customWidth="1"/>
+    <col min="24" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="26" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -2447,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
@@ -2461,61 +3397,66 @@
       <c r="O1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="74" t="s">
-        <v>64</v>
+      <c r="P1" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="26" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="68">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>26</v>
+      <c r="D2" s="71" t="s">
+        <v>275</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>27</v>
+      <c r="F2" s="114" t="s">
+        <v>26</v>
       </c>
       <c r="G2" s="26">
         <v>1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="11">
         <v>1</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="M2" s="115" t="s">
+        <v>283</v>
+      </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="75"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="81" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="Q2" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="R2" s="33"/>
-    </row>
-    <row r="3" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U2" s="112"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+    </row>
+    <row r="3" spans="1:23" ht="26" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2523,40 +3464,45 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>29</v>
+      <c r="F3" s="114" t="s">
+        <v>191</v>
       </c>
       <c r="G3" s="26">
         <v>2</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>29</v>
+      <c r="H3" s="114" t="s">
+        <v>191</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="115" t="s">
+        <v>291</v>
+      </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="75"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="81" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="R3" s="33"/>
-    </row>
-    <row r="4" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="112"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+    </row>
+    <row r="4" spans="1:23" ht="26" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2564,40 +3510,45 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>29</v>
+      <c r="F4" s="114" t="s">
+        <v>191</v>
       </c>
       <c r="G4" s="26">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>29</v>
+      <c r="H4" s="114" t="s">
+        <v>191</v>
       </c>
       <c r="I4" s="11">
         <v>2</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="M4" s="115" t="s">
+        <v>291</v>
+      </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="75"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="81" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="R4" s="33"/>
-    </row>
-    <row r="5" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="112"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+    </row>
+    <row r="5" spans="1:23" ht="26" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2605,8 +3556,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="64"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -2623,22 +3574,27 @@
         <v>2</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="115" t="s">
+        <v>288</v>
+      </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="75"/>
+      <c r="O5" s="42"/>
       <c r="P5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="81" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="R5" s="33"/>
-    </row>
-    <row r="6" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="112"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+    </row>
+    <row r="6" spans="1:23" ht="26" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2646,40 +3602,43 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="64"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="26">
         <v>4</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6" s="11">
         <v>3</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="75"/>
+      <c r="O6" s="42"/>
       <c r="P6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="81" t="s">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="Q6" s="48" t="s">
+        <v>69</v>
       </c>
       <c r="R6" s="33"/>
-    </row>
-    <row r="7" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U6" s="112"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+    </row>
+    <row r="7" spans="1:23" ht="26" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2687,25 +3646,25 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="64"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="26">
         <v>4</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7" s="11">
         <v>3</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -2713,14 +3672,17 @@
       <c r="N7" s="4"/>
       <c r="O7" s="36"/>
       <c r="P7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="81" t="s">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>69</v>
       </c>
       <c r="R7" s="32"/>
-    </row>
-    <row r="8" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="112"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+    </row>
+    <row r="8" spans="1:23" ht="26" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2728,61 +3690,70 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="65"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" s="26">
         <v>5</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I8" s="11">
         <v>4</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="M8" s="120" t="s">
+        <v>290</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="81" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="Q8" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="R8" s="33"/>
-    </row>
-    <row r="9" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="58" t="s">
+      <c r="U8" s="112"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+    </row>
+    <row r="9" spans="1:23" ht="26" customHeight="1">
+      <c r="A9" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="74"/>
+      <c r="Q9" s="41"/>
       <c r="R9" s="32"/>
-    </row>
-    <row r="10" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U9" s="112"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+    </row>
+    <row r="10" spans="1:23" ht="26" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2790,44 +3761,49 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="68">
         <v>1</v>
       </c>
-      <c r="D10" s="63" t="s">
-        <v>26</v>
+      <c r="D10" s="71" t="s">
+        <v>275</v>
       </c>
       <c r="E10" s="26">
         <v>5</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G10" s="26">
         <v>5</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I10" s="11">
         <v>4</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="120" t="s">
+        <v>290</v>
+      </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="75"/>
+      <c r="O10" s="42"/>
       <c r="P10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="81" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="Q10" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="R10" s="32"/>
-    </row>
-    <row r="11" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="112"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+    </row>
+    <row r="11" spans="1:23" ht="26" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2835,40 +3811,45 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="64"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" s="26">
         <v>6</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I11" s="11">
         <v>5</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="120" t="s">
+        <v>290</v>
+      </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="75"/>
+      <c r="O11" s="42"/>
       <c r="P11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="81" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="Q11" s="48" t="s">
+        <v>71</v>
       </c>
       <c r="R11" s="33"/>
-    </row>
-    <row r="12" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U11" s="112"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="117"/>
+    </row>
+    <row r="12" spans="1:23" ht="26" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2876,39 +3857,44 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="64"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="26">
         <v>6</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11">
         <v>5</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="120" t="s">
+        <v>290</v>
+      </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="75"/>
+      <c r="O12" s="42"/>
       <c r="P12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q12" s="81" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" s="112"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+    </row>
+    <row r="13" spans="1:23" ht="26" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2916,40 +3902,45 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G13" s="26">
         <v>7</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I13" s="11">
         <v>6</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="120" t="s">
+        <v>289</v>
+      </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="75"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="81" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="Q13" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="R13" s="33"/>
-    </row>
-    <row r="14" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U13" s="112"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+    </row>
+    <row r="14" spans="1:23" ht="26" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2957,39 +3948,44 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="64"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" s="26">
         <v>7</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I14" s="11">
         <v>6</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="120" t="s">
+        <v>289</v>
+      </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="75"/>
+      <c r="O14" s="42"/>
       <c r="P14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="81" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="U14" s="112"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+    </row>
+    <row r="15" spans="1:23" ht="26" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2997,42 +3993,47 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" s="26">
         <v>8</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I15" s="11">
         <v>7</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="115" t="s">
+        <v>284</v>
+      </c>
       <c r="N15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="75"/>
+        <v>54</v>
+      </c>
+      <c r="O15" s="42"/>
       <c r="P15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q15" s="81" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="Q15" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="R15" s="33"/>
-    </row>
-    <row r="16" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U15" s="112"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+    </row>
+    <row r="16" spans="1:23" ht="26" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3040,62 +4041,70 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="65"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="26">
         <v>8</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I16" s="11">
         <v>7</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="115" t="s">
+        <v>284</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="36"/>
       <c r="P16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="81" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="Q16" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="R16" s="32"/>
-    </row>
-    <row r="17" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="58" t="s">
+      <c r="U16" s="112"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+    </row>
+    <row r="17" spans="1:23" ht="26" customHeight="1">
+      <c r="A17" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="74"/>
+      <c r="Q17" s="41"/>
       <c r="R17" s="32"/>
-    </row>
-    <row r="18" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="112"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+    </row>
+    <row r="18" spans="1:23" ht="26" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3103,44 +4112,49 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="81">
         <v>2</v>
       </c>
-      <c r="D18" s="55" t="s">
-        <v>32</v>
+      <c r="D18" s="84" t="s">
+        <v>189</v>
       </c>
       <c r="E18" s="28">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G18" s="28">
         <v>1</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I18" s="13">
         <v>8</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="115" t="s">
+        <v>286</v>
+      </c>
       <c r="N18" s="27"/>
-      <c r="O18" s="76"/>
+      <c r="O18" s="43"/>
       <c r="P18" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q18" s="82" t="s">
-        <v>78</v>
+        <v>190</v>
+      </c>
+      <c r="Q18" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="R18" s="33"/>
-    </row>
-    <row r="19" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="112"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+    </row>
+    <row r="19" spans="1:23" ht="26" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3148,40 +4162,45 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="56"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G19" s="28">
         <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I19" s="13">
         <v>8</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="115" t="s">
+        <v>286</v>
+      </c>
       <c r="N19" s="27"/>
-      <c r="O19" s="76"/>
+      <c r="O19" s="43"/>
       <c r="P19" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q19" s="82" t="s">
-        <v>78</v>
+        <v>190</v>
+      </c>
+      <c r="Q19" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="R19" s="33"/>
-    </row>
-    <row r="20" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="112"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+    </row>
+    <row r="20" spans="1:23" ht="26" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3189,40 +4208,45 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G20" s="28">
         <v>2</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I20" s="13">
         <v>9</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="115" t="s">
+        <v>287</v>
+      </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="75"/>
+      <c r="O20" s="42"/>
       <c r="P20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q20" s="82" t="s">
-        <v>79</v>
+        <v>190</v>
+      </c>
+      <c r="Q20" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="R20" s="33"/>
-    </row>
-    <row r="21" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="112"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+    </row>
+    <row r="21" spans="1:23" ht="26" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3230,40 +4254,45 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="57"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G21" s="28">
         <v>2</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I21" s="13">
         <v>9</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="115" t="s">
+        <v>287</v>
+      </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="75"/>
+      <c r="O21" s="42"/>
       <c r="P21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q21" s="82" t="s">
-        <v>79</v>
+        <v>190</v>
+      </c>
+      <c r="Q21" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="R21" s="33"/>
-    </row>
-    <row r="22" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U21" s="112"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+    </row>
+    <row r="22" spans="1:23" ht="26" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3271,44 +4300,49 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="71">
+      <c r="C22" s="61">
         <v>3</v>
       </c>
-      <c r="D22" s="68" t="s">
-        <v>67</v>
+      <c r="D22" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="E22" s="35">
         <v>1</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G22" s="35">
         <v>1</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="15">
         <v>10</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="M22" s="115" t="s">
+        <v>285</v>
+      </c>
       <c r="N22" s="3"/>
-      <c r="O22" s="75"/>
+      <c r="O22" s="42"/>
       <c r="P22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q22" s="85" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="Q22" s="52" t="s">
+        <v>76</v>
       </c>
       <c r="R22" s="32"/>
-    </row>
-    <row r="23" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="112"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+    </row>
+    <row r="23" spans="1:23" ht="26" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3316,42 +4350,44 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="69"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G23" s="35">
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I23" s="15">
         <v>10</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="115" t="s">
+        <v>280</v>
+      </c>
       <c r="N23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="75"/>
+      <c r="O23" s="42"/>
       <c r="P23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q23" s="85" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="Q23" s="52" t="s">
+        <v>76</v>
       </c>
       <c r="R23" s="33"/>
     </row>
-    <row r="24" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="26" customHeight="1">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -3359,60 +4395,65 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="70"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G24" s="35">
         <v>2</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I24" s="15">
         <v>11</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="115" t="s">
+        <v>280</v>
+      </c>
       <c r="N24" s="27"/>
-      <c r="O24" s="75"/>
+      <c r="O24" s="42"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="85" t="s">
-        <v>81</v>
+      <c r="Q24" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="R24" s="33"/>
     </row>
-    <row r="25" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="58" t="s">
+    <row r="25" spans="1:23" ht="26" customHeight="1">
+      <c r="A25" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="83"/>
+      <c r="Q25" s="50"/>
       <c r="R25" s="32"/>
-    </row>
-    <row r="26" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U25" s="112"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+    </row>
+    <row r="26" spans="1:23" ht="26" customHeight="1">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -3420,44 +4461,49 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="71">
+      <c r="C26" s="61">
         <v>3</v>
       </c>
-      <c r="D26" s="68" t="s">
-        <v>67</v>
+      <c r="D26" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="E26" s="29">
         <v>3</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G26" s="35">
         <v>3</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I26" s="15">
         <v>11</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="M26" s="115" t="s">
+        <v>281</v>
+      </c>
       <c r="N26" s="27"/>
-      <c r="O26" s="75"/>
+      <c r="O26" s="42"/>
       <c r="P26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q26" s="85" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="Q26" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="R26" s="32"/>
-    </row>
-    <row r="27" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="112"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+    </row>
+    <row r="27" spans="1:23" ht="26" customHeight="1">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -3465,37 +4511,42 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="69"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G27" s="35">
         <v>3</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I27" s="15">
         <v>12</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="40"/>
+      <c r="M27" s="119" t="s">
+        <v>281</v>
+      </c>
       <c r="O27" s="36"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="85" t="s">
-        <v>82</v>
+      <c r="Q27" s="52" t="s">
+        <v>78</v>
       </c>
       <c r="R27" s="33"/>
-    </row>
-    <row r="28" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U27" s="112"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+    </row>
+    <row r="28" spans="1:23" ht="26" customHeight="1">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -3503,40 +4554,45 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="69"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G28" s="29">
         <v>4</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I28" s="15">
         <v>12</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="M28" s="115" t="s">
+        <v>282</v>
+      </c>
       <c r="N28" s="4"/>
       <c r="O28" s="36"/>
       <c r="P28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q28" s="85" t="s">
-        <v>82</v>
+        <v>66</v>
+      </c>
+      <c r="Q28" s="52" t="s">
+        <v>78</v>
       </c>
       <c r="R28" s="32"/>
-    </row>
-    <row r="29" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="112"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+    </row>
+    <row r="29" spans="1:23" ht="26" customHeight="1">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -3544,38 +4600,43 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="70"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G29" s="35">
         <v>4</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I29" s="15">
         <v>13</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="M29" s="115" t="s">
+        <v>282</v>
+      </c>
       <c r="N29" s="3"/>
-      <c r="O29" s="75"/>
+      <c r="O29" s="42"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="85" t="s">
-        <v>83</v>
+      <c r="Q29" s="52" t="s">
+        <v>79</v>
       </c>
       <c r="R29" s="33"/>
-    </row>
-    <row r="30" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U29" s="112"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+    </row>
+    <row r="30" spans="1:23" ht="26" customHeight="1">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -3583,46 +4644,51 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="64">
         <v>4</v>
       </c>
-      <c r="D30" s="41" t="s">
-        <v>48</v>
+      <c r="D30" s="66" t="s">
+        <v>45</v>
       </c>
       <c r="E30" s="30">
         <v>1</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G30" s="30">
         <v>1</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I30" s="15">
         <v>13</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="M30" s="115" t="s">
+        <v>276</v>
+      </c>
       <c r="N30" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O30" s="36"/>
       <c r="P30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q30" s="85" t="s">
-        <v>83</v>
+        <v>65</v>
+      </c>
+      <c r="Q30" s="52" t="s">
+        <v>79</v>
       </c>
       <c r="R30" s="32"/>
-    </row>
-    <row r="31" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U30" s="112"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+    </row>
+    <row r="31" spans="1:23" ht="26" customHeight="1">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -3630,62 +4696,70 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G31" s="30">
         <v>2</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I31" s="18">
         <v>14</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
+      <c r="M31" s="115" t="s">
+        <v>278</v>
+      </c>
       <c r="N31" s="27"/>
-      <c r="O31" s="76"/>
+      <c r="O31" s="43"/>
       <c r="P31" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q31" s="86" t="s">
-        <v>84</v>
+        <v>65</v>
+      </c>
+      <c r="Q31" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="R31" s="32"/>
-    </row>
-    <row r="32" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="66" t="s">
+      <c r="U31" s="112"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+    </row>
+    <row r="32" spans="1:23" ht="26" customHeight="1">
+      <c r="A32" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="84"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="51"/>
       <c r="R32" s="32"/>
-    </row>
-    <row r="33" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U32" s="112"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+    </row>
+    <row r="33" spans="1:23" ht="26" customHeight="1">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -3693,42 +4767,44 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="64">
         <v>4</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>48</v>
+      <c r="D33" s="66" t="s">
+        <v>45</v>
       </c>
       <c r="E33" s="30">
         <v>2</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G33" s="30">
         <v>2</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I33" s="18">
         <v>14</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
+      <c r="M33" s="115" t="s">
+        <v>278</v>
+      </c>
       <c r="N33" s="6"/>
-      <c r="O33" s="77"/>
+      <c r="O33" s="44"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="86" t="s">
-        <v>84</v>
+      <c r="Q33" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="R33" s="33"/>
     </row>
-    <row r="34" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="26" customHeight="1">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -3736,40 +4812,42 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G34" s="30">
         <v>3</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I34" s="18">
         <v>15</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K34" s="39"/>
       <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
+      <c r="M34" s="118" t="s">
+        <v>279</v>
+      </c>
       <c r="N34" s="4"/>
-      <c r="O34" s="77"/>
+      <c r="O34" s="44"/>
       <c r="P34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q34" s="86" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="Q34" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="R34" s="32"/>
     </row>
-    <row r="35" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="26" customHeight="1">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -3777,19 +4855,19 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="43"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G35" s="30">
         <v>4</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I35" s="21">
         <v>15</v>
@@ -3799,15 +4877,17 @@
       </c>
       <c r="K35" s="39"/>
       <c r="L35" s="39"/>
-      <c r="M35" s="40"/>
+      <c r="M35" s="119" t="s">
+        <v>277</v>
+      </c>
       <c r="O35" s="36"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="R35" s="79"/>
-    </row>
-    <row r="36" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="R35" s="46"/>
+    </row>
+    <row r="36" spans="1:23" ht="26" customHeight="1">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -3815,17 +4895,17 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="78">
         <v>5</v>
       </c>
-      <c r="D36" s="47" t="s">
-        <v>54</v>
+      <c r="D36" s="76" t="s">
+        <v>51</v>
       </c>
       <c r="E36" s="31">
         <v>1</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="20"/>
@@ -3833,20 +4913,23 @@
         <v>15</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K36" s="39"/>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="78"/>
+      <c r="O36" s="45"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="86" t="s">
-        <v>85</v>
+      <c r="Q36" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="R36" s="33"/>
-    </row>
-    <row r="37" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U36" s="112"/>
+      <c r="V36" s="117"/>
+      <c r="W36" s="117"/>
+    </row>
+    <row r="37" spans="1:23" ht="26" customHeight="1">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -3854,13 +4937,13 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="48"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G37" s="31"/>
       <c r="H37" s="20"/>
@@ -3868,7 +4951,7 @@
         <v>15</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K37" s="39"/>
       <c r="L37" s="39"/>
@@ -3878,12 +4961,15 @@
       </c>
       <c r="O37" s="36"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="R37" s="79"/>
-    </row>
-    <row r="38" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="R37" s="46"/>
+      <c r="U37" s="112"/>
+      <c r="V37" s="117"/>
+      <c r="W37" s="117"/>
+    </row>
+    <row r="38" spans="1:23" ht="26" customHeight="1">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -3891,13 +4977,13 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="20"/>
@@ -3905,7 +4991,7 @@
         <v>15</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -3913,12 +4999,15 @@
       <c r="N38" s="4"/>
       <c r="O38" s="36"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="86" t="s">
-        <v>85</v>
+      <c r="Q38" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="R38" s="33"/>
-    </row>
-    <row r="39" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U38" s="112"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+    </row>
+    <row r="39" spans="1:23" ht="26" customHeight="1">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -3926,13 +5015,13 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="20"/>
@@ -3940,20 +5029,23 @@
         <v>15</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="27"/>
-      <c r="O39" s="76"/>
+      <c r="O39" s="43"/>
       <c r="P39" s="27"/>
-      <c r="Q39" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="R39" s="79"/>
-    </row>
-    <row r="40" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q39" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="R39" s="46"/>
+      <c r="U39" s="112"/>
+      <c r="V39" s="117"/>
+      <c r="W39" s="117"/>
+    </row>
+    <row r="40" spans="1:23" ht="26" customHeight="1">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -3961,13 +5053,13 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="20"/>
@@ -3975,40 +5067,114 @@
         <v>15</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="86" t="s">
-        <v>85</v>
+      <c r="Q40" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="R40" s="33"/>
-    </row>
-    <row r="41" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="66" t="s">
+      <c r="U40" s="112"/>
+      <c r="V40" s="117"/>
+      <c r="W40" s="117"/>
+    </row>
+    <row r="41" spans="1:23" ht="26" customHeight="1">
+      <c r="A41" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="80"/>
-      <c r="Q41" s="84"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="51"/>
+      <c r="U41" s="112"/>
+      <c r="V41" s="117"/>
+      <c r="W41" s="117"/>
+    </row>
+    <row r="42" spans="1:23" ht="26" customHeight="1">
+      <c r="U42" s="112"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+    </row>
+    <row r="43" spans="1:23" ht="26" customHeight="1">
+      <c r="U43" s="112"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+    </row>
+    <row r="44" spans="1:23" ht="26" customHeight="1">
+      <c r="U44" s="112"/>
+      <c r="V44" s="117"/>
+      <c r="W44" s="117"/>
+    </row>
+    <row r="45" spans="1:23" ht="26" customHeight="1">
+      <c r="U45" s="112"/>
+      <c r="V45" s="117"/>
+      <c r="W45" s="117"/>
+    </row>
+    <row r="46" spans="1:23" ht="26" customHeight="1">
+      <c r="U46" s="112"/>
+      <c r="V46" s="117"/>
+      <c r="W46" s="117"/>
+    </row>
+    <row r="47" spans="1:23" ht="26" customHeight="1">
+      <c r="U47" s="112"/>
+      <c r="V47" s="117"/>
+      <c r="W47" s="117"/>
+    </row>
+    <row r="48" spans="1:23" ht="26" customHeight="1">
+      <c r="U48" s="112"/>
+      <c r="V48" s="117"/>
+      <c r="W48" s="117"/>
+    </row>
+    <row r="49" spans="21:23" ht="26" customHeight="1">
+      <c r="U49" s="112"/>
+      <c r="V49" s="117"/>
+      <c r="W49" s="117"/>
+    </row>
+    <row r="50" spans="21:23" ht="26" customHeight="1">
+      <c r="U50" s="112"/>
+      <c r="V50" s="117"/>
+      <c r="W50" s="117"/>
+    </row>
+    <row r="51" spans="21:23" ht="26" customHeight="1">
+      <c r="U51" s="112"/>
+      <c r="V51" s="117"/>
+      <c r="W51" s="117"/>
+    </row>
+    <row r="52" spans="21:23" ht="26" customHeight="1">
+      <c r="U52" s="112"/>
+      <c r="V52" s="117"/>
+      <c r="W52" s="117"/>
+    </row>
+    <row r="53" spans="21:23" ht="26" customHeight="1">
+      <c r="U53" s="112"/>
+      <c r="V53" s="117"/>
+      <c r="W53" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A25:O25"/>
@@ -4018,18 +5184,10 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A17:O17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4038,22 +5196,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="21" customHeight="1"/>
+    <row r="2" spans="1:2" ht="31">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -4061,44 +5219,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="38" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="38" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="38" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="38" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="38" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4106,4 +5264,1270 @@
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CABC09-258C-4DA4-863D-66ACD0950ECB}">
+  <dimension ref="A1:C66"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="112"/>
+    <col min="2" max="2" width="75.81640625" style="113" customWidth="1"/>
+    <col min="3" max="3" width="100.54296875" style="113" customWidth="1"/>
+    <col min="4" max="16384" width="10.90625" style="112"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="113" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24">
+      <c r="A2" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36">
+      <c r="A3" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24">
+      <c r="A4" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="112" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="113" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24">
+      <c r="A8" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="113" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="113" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="112" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="113" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="113" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="113" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24">
+      <c r="A21" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24">
+      <c r="A22" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="113" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24">
+      <c r="A24" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="113" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="121" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="121" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="122" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="121" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24">
+      <c r="A31" s="121" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="122" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="112" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="113" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="113" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24">
+      <c r="A35" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="113" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="113" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24">
+      <c r="A37" s="112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="113" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="36">
+      <c r="A38" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="113" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24">
+      <c r="A39" s="112" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24">
+      <c r="A42" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="113" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="113" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="36">
+      <c r="A43" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="113" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24">
+      <c r="A44" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="113" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24">
+      <c r="A46" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="113" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24">
+      <c r="A47" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="113" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24">
+      <c r="A48" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="113" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24">
+      <c r="A49" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="113" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24">
+      <c r="A50" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="113" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="112" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="113" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="112" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="113" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24">
+      <c r="A57" s="112" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="113" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="113" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="113" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24">
+      <c r="A60" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="113" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="113" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="113" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="113" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="112" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="113" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="112" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="113" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="113" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="48">
+      <c r="B66" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACDCA5C-5FBA-4813-BA98-6342B0A4D0CB}">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="47.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.5">
+      <c r="A1" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
+    </row>
+    <row r="2" spans="1:4" ht="21">
+      <c r="A2" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+    </row>
+    <row r="3" spans="1:4" ht="42">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="92"/>
+    </row>
+    <row r="4" spans="1:4" ht="31.5">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="92"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="92"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+    </row>
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42">
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="53" thickBot="1">
+      <c r="A10" s="93"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13" thickBot="1">
+      <c r="A11" s="96"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.5">
+      <c r="A12" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+    </row>
+    <row r="17" spans="1:4" ht="21">
+      <c r="A17" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+    </row>
+    <row r="18" spans="1:4" ht="21">
+      <c r="A18" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+    </row>
+    <row r="21" spans="1:4" ht="21">
+      <c r="A21" s="90"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="92"/>
+    </row>
+    <row r="22" spans="1:4" ht="21">
+      <c r="A22" s="90"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="92"/>
+    </row>
+    <row r="23" spans="1:4" ht="21">
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="92"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="90"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="92"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="90"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="92"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="90"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+    </row>
+    <row r="28" spans="1:4" ht="21">
+      <c r="A28" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+    </row>
+    <row r="30" spans="1:4" ht="21">
+      <c r="A30" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+    </row>
+    <row r="31" spans="1:4" ht="21">
+      <c r="A31" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+    </row>
+    <row r="33" spans="1:4" ht="21">
+      <c r="A33" s="90"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21">
+      <c r="A34" s="90"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.5">
+      <c r="A35" s="90"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31.5">
+      <c r="A36" s="90"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31.5">
+      <c r="A37" s="90"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="52.5">
+      <c r="A38" s="90"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="32" thickBot="1">
+      <c r="A39" s="93"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13" thickBot="1">
+      <c r="A40" s="96"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.5">
+      <c r="A41" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="100"/>
+    </row>
+    <row r="42" spans="1:4" ht="31.5">
+      <c r="A42" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="101"/>
+      <c r="D42" s="102"/>
+    </row>
+    <row r="43" spans="1:4" ht="42">
+      <c r="A43" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
+    </row>
+    <row r="44" spans="1:4" ht="31.5">
+      <c r="A44" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
+    </row>
+    <row r="45" spans="1:4" ht="21">
+      <c r="A45" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="101"/>
+      <c r="D45" s="102"/>
+    </row>
+    <row r="46" spans="1:4" ht="21">
+      <c r="A46" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
+    </row>
+    <row r="47" spans="1:4" ht="42">
+      <c r="A47" s="90"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="31.5">
+      <c r="A48" s="90"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="52.5">
+      <c r="A49" s="90"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="74" thickBot="1">
+      <c r="A50" s="93"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1">
+      <c r="A51" s="96"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1">
+      <c r="A52" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="108"/>
+    </row>
+    <row r="53" spans="1:4" ht="21">
+      <c r="A53" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+    </row>
+    <row r="54" spans="1:4" ht="21">
+      <c r="A54" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+    </row>
+    <row r="55" spans="1:4" ht="21">
+      <c r="A55" s="111" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+    </row>
+    <row r="56" spans="1:4" ht="21">
+      <c r="A56" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+    </row>
+    <row r="57" spans="1:4" ht="21">
+      <c r="A57" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+    </row>
+    <row r="58" spans="1:4" ht="21">
+      <c r="A58" s="111"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="91" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="52.5">
+      <c r="A59" s="111"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="21.5" thickBot="1">
+      <c r="A60" s="111"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1">
+      <c r="A61" s="96"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1">
+      <c r="A62" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="108"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="110"/>
+      <c r="D63" s="110"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
+    </row>
+    <row r="65" spans="1:4" ht="42">
+      <c r="A65" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A62:D62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>